--- a/6五年计划：青年榜样/一五耕作收成.xlsx
+++ b/6五年计划：青年榜样/一五耕作收成.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24580" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="40" yWindow="440" windowWidth="24580" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="打卡" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>2017年11月</t>
     <rPh sb="4" eb="5">
@@ -398,6 +398,13 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>geng'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10：44桥水</t>
+    <rPh sb="5" eb="6">
+      <t>qiao'shui</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -733,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -943,6 +950,9 @@
       <c r="C8" s="1">
         <v>20171116</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>

--- a/6五年计划：青年榜样/一五耕作收成.xlsx
+++ b/6五年计划：青年榜样/一五耕作收成.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40" yWindow="440" windowWidth="24580" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24580" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="打卡" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>2017年11月</t>
     <rPh sb="4" eb="5">
@@ -405,6 +405,35 @@
     <t>10：44桥水</t>
     <rPh sb="5" eb="6">
       <t>qiao'shui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看芒格</t>
+    <rPh sb="0" eb="1">
+      <t>kan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>mang'ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想明白自己要学数学了</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'ming'bai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xue'shu'xue</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>le</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -741,7 +770,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -953,6 +982,15 @@
       <c r="D8" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1754</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>

--- a/6五年计划：青年榜样/一五耕作收成.xlsx
+++ b/6五年计划：青年榜样/一五耕作收成.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>2017年11月</t>
     <rPh sb="4" eb="5">
@@ -434,6 +434,16 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>le</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔兽小说</t>
+    <rPh sb="0" eb="1">
+      <t>mo'shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao'shuo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -770,7 +780,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -988,6 +998,12 @@
       <c r="F8" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="G8" s="1">
+        <v>178</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="I8" s="1">
         <v>1754</v>
       </c>

--- a/6五年计划：青年榜样/一五耕作收成.xlsx
+++ b/6五年计划：青年榜样/一五耕作收成.xlsx
@@ -780,7 +780,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/6五年计划：青年榜样/一五耕作收成.xlsx
+++ b/6五年计划：青年榜样/一五耕作收成.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24580" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="24580" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="打卡" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>2017年11月</t>
     <rPh sb="4" eb="5">
@@ -444,6 +444,29 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>xiao'shuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11：30形而上学</t>
+    <rPh sb="5" eb="6">
+      <t>xing'er'shang'xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想明白自己一生总会有足够多机会</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'ming'bai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi'ji'yi'sheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zong'hui'you</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zu'gou'duo'ji'hui</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -779,7 +802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -789,7 +812,7 @@
     <col min="2" max="2" width="7.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
@@ -1013,6 +1036,24 @@
       <c r="B9" s="3"/>
       <c r="C9" s="1">
         <v>20171117</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="1">
+        <v>993</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">

--- a/6五年计划：青年榜样/一五耕作收成.xlsx
+++ b/6五年计划：青年榜样/一五耕作收成.xlsx
@@ -1047,7 +1047,7 @@
         <v>38</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>19</v>

--- a/6五年计划：青年榜样/一五耕作收成.xlsx
+++ b/6五年计划：青年榜样/一五耕作收成.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="24580" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24580" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="打卡" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>2017年11月</t>
     <rPh sb="4" eb="5">
@@ -115,16 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>魔兽小说</t>
-    <rPh sb="0" eb="1">
-      <t>mo'shou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xiao'hsuo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黄章晋回答整理+P锟记录</t>
     <rPh sb="0" eb="1">
       <t>huang'zhang'jin</t>
@@ -207,13 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>魔兽小说</t>
-    <rPh sb="0" eb="1">
-      <t>mo'shou'xiao'shuo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黄重点整理</t>
     <rPh sb="0" eb="1">
       <t>huang</t>
@@ -310,19 +293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>英文耕作粮食</t>
-    <rPh sb="0" eb="1">
-      <t>ying'wen</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>geng'zuo</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>liang'shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>意识形态耕作</t>
     <rPh sb="0" eb="1">
       <t>yi'shi'xing'tai</t>
@@ -438,16 +408,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>魔兽小说</t>
-    <rPh sb="0" eb="1">
-      <t>mo'shou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xiao'shuo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11：30形而上学</t>
     <rPh sb="5" eb="6">
       <t>xing'er'shang'xue</t>
@@ -467,6 +427,45 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>zu'gou'duo'ji'hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17：15锟</t>
+    <rPh sb="5" eb="6">
+      <t>kun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新三篇Power锟并感受力量</t>
+    <rPh sb="0" eb="1">
+      <t>geng'xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>san'pian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>kun</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bing'gan'shou</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>li'liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粘贴玩芒格内容</t>
+    <rPh sb="0" eb="1">
+      <t>zhan'tie'wan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mang'ge</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>nei'rong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -800,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -815,37 +814,33 @@
     <col min="5" max="5" width="34.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="13.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -856,7 +851,7 @@
         <v>20171110</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -867,39 +862,33 @@
       <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="H2" s="1">
         <v>2131</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="1">
         <v>20171111</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="H3" s="1">
         <v>2422</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="1">
@@ -909,22 +898,19 @@
         <v>0.56111111111111112</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="1">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>2</v>
@@ -933,78 +919,69 @@
         <v>20171113</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="1">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1">
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1">
         <v>20171114</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="G6" s="1">
         <v>143</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="H6" s="1">
         <v>655</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="1">
         <v>20171115</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G7" s="1">
         <v>149</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="H7" s="1">
         <v>2286</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>3</v>
@@ -1013,57 +990,63 @@
         <v>20171116</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G8" s="1">
         <v>178</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="H8" s="1">
         <v>1754</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="1">
         <v>20171117</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G9" s="1">
         <v>49</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="H9" s="1">
         <v>993</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="1">
         <v>20171118</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>4</v>
@@ -1072,21 +1055,21 @@
         <v>20171119</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="1">
         <v>20171120</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="1">
         <v>20171121</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>5</v>
@@ -1095,14 +1078,14 @@
         <v>20171122</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="1">
         <v>20171123</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="1">
